--- a/Bausteine/test.xlsx
+++ b/Bausteine/test.xlsx
@@ -1,141 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="6345"/>
   </bookViews>
   <sheets>
-    <sheet name="WebData" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="WebData" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
-  <si>
-    <t>1. Bosch Geschirrspüler, unterbaufähig, 45 cm, € 150,- (in ES-Zollberg). % (01 52) 29 71 66 87</t>
-  </si>
-  <si>
-    <t>2. Sammler kauft: Fotoapparate, Armbanduhren, Werkzeuge, Eisenbahnen (Märklin), alte Kofferradios, Tonbandgeräte und Modellautos.
-% (0 70 24) 86 82 75</t>
-  </si>
-  <si>
-    <t>3. Weibliches Wesen , für gemeinsame verschmuste Momente, Tage, Monate, Jahre von eher ruhigem aber sehr gefühlsbetontem jungen Mann (60) gesucht. Musik, Theater, Schwimmen, Spazieren, Reden, Schweigen, und UNS gemeinsam geniessen ... Zuschriften unter Chiffre ZWZU9184 a. d. Ztg.</t>
-  </si>
-  <si>
-    <t>4. Sammler kauft, alles Militärische aus dem 1. und 2. Weltkrieg z.B. Orden und Abzeichen, Urkunden, Dolche und Säbel, Uniformen, Ausrüstungsgegenstände, Helme, etc. 07022-977695</t>
-  </si>
-  <si>
-    <t>5. Im Paket zu verkaufen:, Phonocord, Englischer Hersteller, Plattenspieler mit diversen Umdrehungen, 1700 SE Luxus. Radio und Tonband zuschaltbar, ohne Lautsprecher. Kenwood Stereo-Receiver KR-4050 mit original Bedienungsanleitung. Onkyo Plattenspieler CP-1500F. Akai Casetten-Deck GX-52. Nur im Paket zu verkaufen. VB 280 Euro. 0178/6547342.</t>
-  </si>
-  <si>
-    <t>6. Haushaltsauflösung: Geschirr und Möbel, bei Selbstabholung zu verk.
-Sa. 15.06., von 11-15 Uhr, Neckarstraße 21 (ES) bei Killmann - 1. Etage, bitte klingeln</t>
-  </si>
-  <si>
-    <t>7. vom 12.06.2019</t>
-  </si>
-  <si>
-    <t>8. Stumpenhof - Bank - Tasche
-Frau Zim. bitte melden.
-Tel. 0157-85020885</t>
-  </si>
-  <si>
-    <t>9. Haushaltsauflösung oder Ausmisten? Wer verschenkt gut erhaltene Flohmarktartikel? Bitte nichts wegwerfen! Wir freuen uns über: Altes Kaffeegeschirr, Gläser, Vasen, Lampen, Bilder, Holzstühle, Trödel, Instrumente, Nähmaschinen, Extravagantes und Kurioses und alles aus Oma’s Haushalt für unseren großen Familien-Flohmarkt
-Abholung ! Tel.(0177) 2 85 16 86</t>
-  </si>
-  <si>
-    <t>10. Kaufe alles vom 1. und 2. Weltkrieg Orden, auch uraltes Spielzeug, Märklin-Eisenbahnen, Bücher, sowie alles über alte Autos, Motorräder, Zeppeline usw., Tel. 0711-6405077</t>
-  </si>
-  <si>
-    <t>11. 2 Fahrräder Scott Navajo 26“, m. Nachrüstung Pedelec-Antrieb BionX HT L, Hinterradantrieb, orange weiß, ergänzt m. Schutzblechen u. Gepäckträger, bestens erhalten, zu verk., auch einzeln, Preis € 250,- je Fahrrad (NP ca. € 2800,-); 1 Radträger zur Montage auf der Anhängerkupplung, f. 2 Fahrräder, Fabrikat Atera, € 190,- (NP ca. € 1000,-). % (0711) 36 11 67</t>
-  </si>
-  <si>
-    <t>12. Haushaltsauflösung div. Möbel u. sonstiges günstig abzugeben in ES-Berkheim. Tel. 0159 08191729</t>
-  </si>
-  <si>
-    <t>13. Schöne Ledersesselgarnitur, 3-er Sitz + 2-er Sitz + Sessel, elektr. Leder-Fernsehsessel zu verkaufen. % 0152-29218744</t>
-  </si>
-  <si>
-    <t>14. 2 Olivenbäume,
-in größerem Topf, günstig abzugeben. % (0 71 53) 4 97 16</t>
-  </si>
-  <si>
-    <t>15. Krankenschwester bietet liebevolle Pflege an, auch Kurzzeitpflege bei Ihnen zu Hause
-% 01573-4810675</t>
-  </si>
-  <si>
-    <t>16. Suche Armbanduhr von Heuer od.Rolex auch defekt u. jedes Alter.
-% (01 63) 3 48 01 46</t>
-  </si>
-  <si>
-    <t>17. Hallo, wo bist du? Lass uns nicht alleine sein, ich bin 72 J. alt. Zuschriften unter Chiffre
-EZZU9201 a. d. Ztg.</t>
-  </si>
-  <si>
-    <t>18. Hometrainer Fahrrad crane sport alpha HT mit Computer f. Puls usw., VB € 50 % 0711-3461420</t>
-  </si>
-  <si>
-    <t>19. Wer sammelt alte Telefone?
-Tel.: 0711 / 552453</t>
-  </si>
-  <si>
-    <t>20. Suche guterhaltenes Alu-Klapprad und Sense. % (0711) 3704614</t>
-  </si>
-  <si>
-    <t>21. Vorwerk Kobold Bürstsauger: Typ 120, 100 €; Typ 140/350, 300 €. % (0 71 53) 7 18 46</t>
-  </si>
-  <si>
-    <t>22. Relaxsessel HUKLA, Leder beige mit elektr.Aufstehhilfe, 3 Jahre,sehr gut erh. NP 2200,-- für € 800,--.
-Abholung in Reichenbach/F. Tel.07161/32415</t>
-  </si>
-  <si>
-    <t>23. Sportlich, schlanke, Sie sucht niveauvollen, sportl. Mann -/+60, NR, für gem. Aktivitäten wie Rad fahren, wandern, Kultur, gute Gespräche/Dialoge. Allein ist es auch schön, zu zweit noch schöner. Melde dich gerne, wenn du aus dem Raum ES/S und Umgebung bist: balubinja@yahoo.com</t>
-  </si>
-  <si>
-    <t>24. Haushaltsauflösung, Wir geben einen „Hausflohmarkt“ (alles muß raus, von kleinen Figuren bis hin zu Schränken oder Couch), bekannt, der am Samstag, den 08.06.2019, von 10 Uhr bis voraussichtlich 16 Uhr stattfindet, in 73262 Reichenbach, Asternweg 5.</t>
-  </si>
-  <si>
-    <t>25. Relax-Liege günstig zu verk, neuwertig, Stoffbezug mit Fußteil, Sandfarben % 07158-9807272 AB</t>
-  </si>
-  <si>
-    <t>26. Haushaltsauflösung in Kirchheim Teck, Weihenweg 39 von
-14-18 Uhr nur am Samstag</t>
-  </si>
-  <si>
-    <t>27. Kaufe Flohmarktartikel, bevorzugt Modellautos, Eisenbahn, Werkzeuge, Kleinmaschinen und technische Geräte, Zinn, Fotoapparate und Objektive, Ferngläser, Uhren, Taschenmesser, Jagdmesser, Spielzeug, Porzellanfiguren und Schallplatten und weiteres.
-% 07021-8076238</t>
-  </si>
-  <si>
-    <t>28. Gartenarbeit aller Art gesucht, z. B. Hecken schneiden, Rasen, Platten, Zäune etc. % 0174-3216768.</t>
-  </si>
-  <si>
-    <t>29. Ankauf zum Sammlerwert!
-Antiquitäten, Möbel, Gemälde, Porzellan, Zinn, DM-Münzen, Silberbesteck, Armbanduhren in jeder Preisklasse. Simon Guttenberger % 0175-5370019</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -150,16 +51,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Standard" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -449,201 +359,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bausteine/test.xlsx
+++ b/Bausteine/test.xlsx
@@ -1,42 +1,213 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="19815" windowHeight="6345"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WebData" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="WebData" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+  <si>
+    <t>ZVW- Mein Wochenblatt</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50410737.jpg</t>
+  </si>
+  <si>
+    <t>Damen E—Bike Flyer, 28 Zoll. 200
+km gefahren, Preis ca. 2.800€, Tel
+07181/66149</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50409189.jpg</t>
+  </si>
+  <si>
+    <t>E—Bike Dreirad , neuwertig, unter
+Neuwert auf VB zu verk, Tel
+0 71 8V232 16</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50402184.jpg</t>
+  </si>
+  <si>
+    <t>Mlachbllaschirm 37 Zolt mit He—
+ceiver u. Zubehör, Top, Preis 120€
+Tel. 0 71 81/ 70 68 43</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50404477.jpg</t>
+  </si>
+  <si>
+    <t>1 Velux — Klapp—BSchwingfenster
+GPU uk08, 134 x 140 cm, Kunst
+stoff weiß, ohne Eindeckrahmen
+mit Sichtschutzrollo. VB 200 €
+1 Velux Klapp—Schwingfenster GPU
+sk06, 114 x 118 cm, Kunststoff
+weiß, ohne _ Eindeckrahmen  mit
+Sichtschutzrolle. VB 200,— €
+mail: walter.plapp @t—onlin</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50395433.jpg</t>
+  </si>
+  <si>
+    <t>Garagenflohmarkt am — 22.6.19
+von 9 — 16 Uhr, Eichendorffstr. 76.
+Sulzoach Murr, Haushaltswaren al
+er Art, Puppen und 2 Rasenmäher</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50400622.jpg</t>
+  </si>
+  <si>
+    <t>WWogen Jagdaufgabe Kapitale ro
+phäen preisgünstig zu verk., Tel:
+O715V9443119</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50396949.jpg</t>
+  </si>
+  <si>
+    <t>Arbeitszimmer Akazie, äm Re—
+galwand mit 2 Schiebetüren, Gard
+Schrank, Schreibtisch 1,6 x 0.6m,
+Rollcontainer mit. 4. Schubladen,
+Tel.O7146,/9300080</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50396871.jpg</t>
+  </si>
+  <si>
+    <t>Schlafzimmer Kernbuche mas—
+siv, wegen Umzug zu verk, erst
+2Jait, Doppelbeit 2xZm mit Tem—
+purmatratzen und Flexauflage, 8m
+Schrank mit Innenspiegeln und 2
+Nachtkonsolen, Neupreis 7700,—€
+Preis VS, Tel07146/9309980</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50395753.jpg</t>
+  </si>
+  <si>
+    <t>Bauernhol— u. Haushaftsautlosung
+Flohmarkt am 15.6.2019 ab 8:30
+Uhr, — Walkersmühle, — Lorch—Weit
+mars, antike Möbel, Gerätschalften.
+Pferdekutschen und vieles mehr
+info unter Tel. 0 1520 4 90 26 74.</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50395169.jpg</t>
+  </si>
+  <si>
+    <t>Verkaufe  gebr. Layher—Gerüst
+Tel: O171/ 5 22 93 84.</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50409991.jpg</t>
+  </si>
+  <si>
+    <t>Mlohmarkt, Porschring 20, 71404
+Korb, am Sa. 22.6.19 ab 11 Uhr,
+Elektroartikel um</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50405401.jpg</t>
+  </si>
+  <si>
+    <t>WMohnungsauflösung am 22.6.18
+von 9 —16Uhr, Schillerstr12, 71384
+Weinstadt — Schnait</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50400791.jpg</t>
+  </si>
+  <si>
+    <t>Hobbykegelgruppe,
+gemischt, 60* sucht Verstärkung,
+Mi. t4tg. 17—20 Uhr Waiblingen,
+Mail:gril@t—online.de</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50394769.jpg</t>
+  </si>
+  <si>
+    <t>Große Haushaltsauflosung/are:
+genfiohmarkt Neustadt, Starenweg
+26, Sa., 15.6. 9—16 Uhr, weitere
+Termine n. Abspr. 01 72/ 9 88 82 10</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50387546.jpg</t>
+  </si>
+  <si>
+    <t>Wohnungsaulösung am 15.06.
+von 10.00—14.00 in der Silcherstt
+104, 78614 Schorndort. Möbel,
+Geschirr etc.</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50389592.jpg</t>
+  </si>
+  <si>
+    <t>Blete Offenstalipfatz zum Selbst
+kostenpreis und gegen Mihiffe im
+Stal, Tel. 01 57/ 52 12 96 58</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50387347.jpg</t>
+  </si>
+  <si>
+    <t>Buche _ Plonmarktartike!. gunst
+zu kaufen, Tel. O1 51/ 6681 31 01</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50387354.jpg</t>
+  </si>
+  <si>
+    <t>Buche Fahrerin, derfdie mich m:
+mer wieder zu Ärzten nach Stuttgt
+TÜ u. Weil d. St. fährt. Gegen Be—
+zahlung. Tel. (0 71 81) 2 28 96</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,24 +223,18 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Standard" xfId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -359,52 +524,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A73" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Bausteine/test.xlsx
+++ b/Bausteine/test.xlsx
@@ -16,127 +16,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Screenshot_20190704-230307.png</t>
-  </si>
-  <si>
-    <t>SCHNÄPPCHENfohmarkt von
-privat Ales muss raus!
-e 0sor20re,9—12 Unr
-Auerhahnei1, 73614 Schorndort</t>
-  </si>
-  <si>
-    <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Bild2.JPG</t>
-  </si>
-  <si>
-    <t>Große HaushaltsauflösungfGsre—
-genfhmarkt Neustadt, Starenweg
-20 Sa. 6.7, 916 Uhr weiere Ter—
-mine n. Abspr.01 72/ 98882 10</t>
-  </si>
-  <si>
-    <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Bild3.JPG</t>
-  </si>
-  <si>
-    <t>untohnant am Sansndeo”
-Indren lecete zi ven ie U</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt.JPG</t>
   </si>
   <si>
-    <t>Privater Flohmarkt
-Gartenmöbel aus Holz/Metall, Flach—
-bild—TV, 6 Esszi.—Stühle Eiche hell, Olge—
-mälde, Bücher, Geschirr, Handtaschen,
-Schuhe, Kleider, Trachten u. Landhaus—
-mode, Ricoh Kamara m. Teli und Weit—
-winkelobjektiv. Am 5./6.7. von 10—16
-Uhr Hügelstr. 19, Pforzheim</t>
+    <t>Hausflohmarkt Sa, 20.07.
+Hochw. Retro Möbel, Porzellan,
+Antik, uvm. Hauffstr. 9 in Tamm,
+09 — 16 Uhr, 0159/02572528</t>
   </si>
   <si>
     <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt1.JPG</t>
   </si>
   <si>
-    <t>Gruschtelmarkt adieu
-Deshalb großer Hofflohmarkt bei
-langjähriger Gruschtlerin
-Antik, Ausgefallen,Shabby‚Vintage,
-50er/60er//0er, Stühle, Fenster,
-Garten,Truhen,Leitern
-Sa. 06.07.2019 v. 10—18h
-Mühlstrasse 11, 75196 Singen
-UND
-Pforzheimerstr. 43, Wilferdingen</t>
+    <t>Hausflohmarkt Buddhas, Eu—
+len, Clowns, Elfen und Bücher.
+In Erdmannhausen, Pflasterstr.
+3/1; Samstag, 20.07., 10—15 Uhr.</t>
+  </si>
+  <si>
+    <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt2.JPG</t>
+  </si>
+  <si>
+    <t>HOFFLOHMARKT am Samstag
+den 20.07.19 ab 10—16.30 Uhr
+Solitudestr. 30 / Ecke Karlstr.
+in Ludwigsburg</t>
   </si>
   <si>
     <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt3.JPG</t>
   </si>
   <si>
-    <t>Wohnungsauflösung
-Flohmarkt: Heimtextilien Kleidung
-(w 36—38/40) Tücher, Taschen, Wä—
-sche, Möbel;Hauhaltswaren, Dekoar—
-tikel, Vasen, Gemälde,Elektroartikel
-uvm. Sa. 29. Juni 2019 10—18 Uhr
-Sa. 30. Juni 2019 11—16 Uhr
-Senefelderstr. 4 Pforzheim
-Telefon 0 72 31 / 27 22 6</t>
-  </si>
-  <si>
-    <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt4.JPG</t>
-  </si>
-  <si>
-    <t>Privater Flohmarkt
-Gartenmöbel aus Holz/Metall, Flach—
-bild—TV, 6 Esszi.—Stühle Eiche hell, Ölge—
-mälde, Bücher, Geschirr, Handtaschen
-Schuhe, Kleider, Trachten u. Landhaus—
-mode. Am 28./29.6. von 10—16 Uhr
-Hügelstr. 19, Pforzheim</t>
+    <t>Garagen—/Hofflohmarkt
+am20.07.19; von 11 bis 18 Uhr;
+Großsachsenheim, Traunreuter
+Str. 6. Tel. (07147) 708103</t>
   </si>
   <si>
     <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt5.JPG</t>
   </si>
   <si>
-    <t>Privater Flohmarkt
-Do. 27.6. — Sa. 29.6.19 v. 10 — 18
-Uhr in Wurmberg, Pforzheimer
-Str. 2 Infos unter:
-(0 70 44) 43950 Angeboten wer—
-den u.a. : Puppen, Bücher, Co—
-mics , Modellautos Sammleredition
-u. einzeln, Hausrat.</t>
+    <t>Garagenflohmarkt Bietigheim/Buch,
+Camberleystr. 47. Am 20.7.2019 v.
+10—17 Uhr: Bekleidung, Haushalts—
+waren, Bücher.</t>
   </si>
   <si>
     <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt6.JPG</t>
   </si>
   <si>
-    <t>Flohmarkt
-Spielsachen 70er J., z.B. Schlümpfe,
-Da.—Bekleidg., HH—Gegenstände, z.T.
-60er J Werkzeug uvm. am Sa,,
-6. 7. 2019 von 11—13 Uhr,
-Wiesenstr. 5 — 75331 Engelsbrand</t>
+    <t>HOFFLOHMARKT Sonntag 21.7
+Antikes&amp;Altes: Möbel, Lampen,
+Türen, Vintage Kinderwagen/
+buggy, Kinderspielzeug uvm.
+So. 21.07.2019, 10 bis 16 Uhr,
+Horrheim, Alte Schulstrasse 21</t>
   </si>
   <si>
     <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt7.JPG</t>
   </si>
   <si>
-    <t>Großer Hofflohmarkt Wann:
-06.07.2019 — 10:00 — 16:00 Uhr.
-Wo:Stuttgarter Str. 48, 71701
-Schwieberdingen</t>
+    <t>Hof—Flohmarkt, Sa. 20.7., 10—15 Uhr,
+Schwarzwaldstr. 18, Böblingen</t>
   </si>
   <si>
     <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt8.JPG</t>
   </si>
   <si>
-    <t>Wohnungsauflösung, Sa.
-06.07. von 10:00 bis 12:00 in
-LB— Weststadt.
-Tel. (0 15 78) 0 48 28 74</t>
+    <t>Antik—Flohmarkt: „es lohnt sich wirk—
+lich”. Hildrizhauser Str. 7, 71155 Alt—
+dorf</t>
   </si>
 </sst>
 </file>
@@ -477,10 +427,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -563,36 +513,6 @@
     <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -605,9 +525,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A11" r:id="rId6"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A13" r:id="rId7"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A15" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A17" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A19" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A21" r:id="rId11"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
